--- a/Data/Cleaned/df_dta_kp_cleaned.xlsx
+++ b/Data/Cleaned/df_dta_kp_cleaned.xlsx
@@ -20,15 +20,15 @@
     <t xml:space="preserve">KEY_POINT</t>
   </si>
   <si>
+    <t xml:space="preserve">Patients reported uncertainty about whether symptoms were directly caused by the disease or related to treatment side-effects.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intense fatigue and a permanent state of weakness  impacted their daily activities (e.g. driving) and required increased rest.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Need to spend long hours in the restroom.</t>
   </si>
   <si>
-    <t xml:space="preserve">Patients reported uncertainty about whether symptoms were directly caused by the disease or related to treatment side-effects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intense fatigue and a permanent state of weakness  impacted their daily activities (e.g. driving) and required increased rest.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stress stemmed from the fear of disease progression or worsening over time.</t>
   </si>
   <si>
@@ -59,6 +59,30 @@
     <t xml:space="preserve">Need to make the illness more visible to loved ones to convey its reality.</t>
   </si>
   <si>
+    <t xml:space="preserve">Multiple treatments were often attempted before finding an effective one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nutritional adaptation was common, but drastic diets were unsustainable long-term due to their restrictive nature. Dietary adjustments were often found through trial and error.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adhering to dietary treatments could be socially challenging, especially in restaurants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatments often needed adjustments over time as they were not always effective long-term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ineffective treatments caused feelings of hopelessness.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncertainty about treatment effectiveness and side effects impacted mental health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Treatment burden included: constraints on activities related to time-consuming treatments (e.g., perfusions) and regular hospital visits, practical issues, like storing self-administered injections in the refrigerator and difficulty maintaining long-term treatment discipline without close clinician follow-up.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Side-effects following surgery, such as physical transformations (e.g., a deformed belly resembling pregnancy), were burdensome in daily life.</t>
   </si>
   <si>
@@ -71,33 +95,42 @@
     <t xml:space="preserve">Stopping treatment was seen as a sign of recovery, despite understanding the disease as incurable.</t>
   </si>
   <si>
-    <t xml:space="preserve">Uncertainty about treatment effectiveness and side effects impacted mental health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Treatment burden included: constraints on activities related to time-consuming treatments (e.g., perfusions) and regular hospital visits, practical issues, like storing self-administered injections in the refrigerator and difficulty maintaining long-term treatment discipline without close clinician follow-up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Multiple treatments were often attempted before finding an effective one.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nutritional adaptation was common, but drastic diets were unsustainable long-term due to their restrictive nature. Dietary adjustments were often found through trial and error.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adhering to dietary treatments could be socially challenging, especially in restaurants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatments often needed adjustments over time as they were not always effective long-term.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ineffective treatments caused feelings of hopelessness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
+    <t xml:space="preserve">Patients were generally satisfied the with follow-up but highlighted some limitations: Perceived lack of physician competence included handling post-operative complications, medication dosages, and professionalism. Healthcare professionals, including nurses, seemed generally unavailable. Some consultations were too brief, often concluding with just a prescription for tests or medication. Limited availability of specialists and rotations between senior and junior staff impacted care quality. Patients felt like numbers due to busy medical staff and overwhelmed doctors. Criticism of a lack of holistic approach: over-specialization led to fragmented care and challenges in navigating different medical specializations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients desired better guidance and a structured care pathway:	Suggested implementation of a comprehensive care pathway similar to those for chronic conditions like diabetes or renal failure. Emphasized the importance of patient education, psychological support, and integrating other team members (e.g., nurses, social workers) into the care continuum. France's care model for Crohn's disease was highlighted as a positive example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A need for better psychological care and reimbursement: Patients expressed the need for psychological support alongside drug treatments and medical procedures. Additional support needs included dieticians, physiotherapists, therapeutic massages, and spa sessions for well-being.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quality of information was perceived to be better in university hospitals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dissatisfaction due to: Lack of proactive instructions (e.g., COVID vaccination), Lack of guidance on which doctors to consult,	Information shared too quickly and sometimes difficult to understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of how doctors communicate the CD diagnosis: Crucial elements: compassion, frankness, and time devoted to explaining the disease and its consequences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive experiences included thorough explanations, opportunity to ask questions, compassionate listening.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative experiences involved a lack of compassion, insufficient time for explanations, and unclear information.</t>
   </si>
   <si>
     <t xml:space="preserve">While generally finding the received information to be clear, there was a desire for more detailed explanations. Topics included potential disease progression, treatment side-effects, and rationale behind treatment recommendations.</t>
   </si>
   <si>
+    <t xml:space="preserve">Involvement in treatment choice varied: some patients had the final say, while others felt obligated to follow prescriptions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patients generally trusted doctors’ expertise, but some hesitated to challenge the recommendations, even though they feared contradicting the doctor’s authority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patients' input was not always heard.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Non-specific symptoms often resulted in initial differential diagnoses centred on common gastrointestinal issues, causing frustration among patients.</t>
   </si>
   <si>
@@ -107,37 +140,70 @@
     <t xml:space="preserve">Compartmentalisation of medical specialisations sometimes delayed recognition of broader systemic issues.</t>
   </si>
   <si>
-    <t xml:space="preserve">Patients were generally satisfied the with follow-up but highlighted some limitations: Perceived lack of physician competence included handling post-operative complications, medication dosages, and professionalism. Healthcare professionals, including nurses, seemed generally unavailable. Some consultations were too brief, often concluding with just a prescription for tests or medication. Limited availability of specialists and rotations between senior and junior staff impacted care quality. Patients felt like numbers due to busy medical staff and overwhelmed doctors. Criticism of a lack of holistic approach: over-specialization led to fragmented care and challenges in navigating different medical specializations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients desired better guidance and a structured care pathway:	Suggested implementation of a comprehensive care pathway similar to those for chronic conditions like diabetes or renal failure. Emphasized the importance of patient education, psychological support, and integrating other team members (e.g., nurses, social workers) into the care continuum. France's care model for Crohn's disease was highlighted as a positive example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A need for better psychological care and reimbursement: Patients expressed the need for psychological support alongside drug treatments and medical procedures. Additional support needs included dieticians, physiotherapists, therapeutic massages, and spa sessions for well-being.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involvement in treatment choice varied: some patients had the final say, while others felt obligated to follow prescriptions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patients generally trusted doctors’ expertise, but some hesitated to challenge the recommendations, even though they feared contradicting the doctor’s authority.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patients' input was not always heard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The quality of information was perceived to be better in university hospitals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dissatisfaction due to: Lack of proactive instructions (e.g., COVID vaccination), Lack of guidance on which doctors to consult,	Information shared too quickly and sometimes difficult to understand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of how doctors communicate the CD diagnosis: Crucial elements: compassion, frankness, and time devoted to explaining the disease and its consequences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Positive experiences included thorough explanations, opportunity to ask questions, compassionate listening.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negative experiences involved a lack of compassion, insufficient time for explanations, and unclear information.</t>
+    <t xml:space="preserve">Symptoms of CD make it challenging to thrive in sexual life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulties in sexual and sentimental life sometimes led to a deliberate choice not to have children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“It was common for patients to hesitate or refuse to participate in social activities due to insufficient access to toilets potentially leading to embarrassing situations. This could lead to isolation and withdrawal from family life and social interactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">”Changes in physical appearance due to the illness or its treatment also increased the desire to avoid social activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adjustments or restrictions in sports and exercise were common due to a lack of energy or the unsuitability of activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Traveling posed difficulties due to limited adequate destination options, medicine transportation issues, and severe symptoms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Support from loved ones was crucial, especially during medical appointments or severe flares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Appreciated support included help with daily tasks, ensuring toilet access, and showing empathy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Relationships with other Crohn's Disease patients were beneficial for exchanging experiences and encouragement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patient support groups were perceived by some as providing valuable information and interaction opportunities, while other perceived them as counterproductive due to negativity or misinformation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> In Belgium, obtaining reimbursement for certain drugs required annual application renewal, causing stress and potential treatment interruptions. The process involved multiple administrative steps and communication channels, leading to delays and frustration. Patients spent significant time on administrative tasks, impacting their professional and personal lives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pharmacists sometimes assisted with navigating administrative procedures and ensuring medication availability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants reported absenteeism due to flare-ups, poor health, medical follow-up, or hospitalizations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduced working hours or long-term sick leave impacted finances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible work schedules helped some manage appointments, while others struggled.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repeated absences and productivity loss caused guilt and also feelings of injustice due to criticism or disciplinary actions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Access to toilets at work, especially in certain jobs, was a significant issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Despite constraints, patients aimed to continue working as if not ill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The accumulation of non-reimbursed expenses over time had a significant financial impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some treatments and investigations were minimally reimbursed or not reimbursed at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses also included food supplements like probiotics and vitamins, which are not reimbursed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private insurance helped limit some of these costs.</t>
   </si>
   <si>
     <t xml:space="preserve">Indirect costs such as parking fees, household help, toilet access fees, and nappies during flare-ups significantly impacted the finances of some patients, especially in the long-term.</t>
@@ -152,70 +218,154 @@
     <t xml:space="preserve"> Patients expressed a wish for fair compensation for relative caregivers.</t>
   </si>
   <si>
-    <t xml:space="preserve">The accumulation of non-reimbursed expenses over time had a significant financial impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Some treatments and investigations were minimally reimbursed or not reimbursed at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expenses also included food supplements like probiotics and vitamins, which are not reimbursed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Private insurance helped limit some of these costs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Symptoms of CD make it challenging to thrive in sexual life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulties in sexual and sentimental life sometimes led to a deliberate choice not to have children.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“It was common for patients to hesitate or refuse to participate in social activities due to insufficient access to toilets potentially leading to embarrassing situations. This could lead to isolation and withdrawal from family life and social interactions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">”Changes in physical appearance due to the illness or its treatment also increased the desire to avoid social activities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Adjustments or restrictions in sports and exercise were common due to a lack of energy or the unsuitability of activities.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Traveling posed difficulties due to limited adequate destination options, medicine transportation issues, and severe symptoms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Support from loved ones was crucial, especially during medical appointments or severe flares.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Appreciated support included help with daily tasks, ensuring toilet access, and showing empathy.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Relationships with other Crohn's Disease patients were beneficial for exchanging experiences and encouragement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patient support groups were perceived by some as providing valuable information and interaction opportunities, while other perceived them as counterproductive due to negativity or misinformation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In Belgium, obtaining reimbursement for certain drugs required annual application renewal, causing stress and potential treatment interruptions. The process involved multiple administrative steps and communication channels, leading to delays and frustration. Patients spent significant time on administrative tasks, impacting their professional and personal lives.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pharmacists sometimes assisted with navigating administrative procedures and ensuring medication availability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants reported absenteeism due to flare-ups, poor health, medical follow-up, or hospitalizations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reduced working hours or long-term sick leave impacted finances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flexible work schedules helped some manage appointments, while others struggled.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repeated absences and productivity loss caused guilt and also feelings of injustice due to criticism or disciplinary actions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Access to toilets at work, especially in certain jobs, was a significant issue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despite constraints, patients aimed to continue working as if not ill.</t>
+    <t xml:space="preserve">Fluctuating and unpredictable energy levels impacted the ability to commit to activities and maintain reliability, and limited social interactions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periods of intense medical follow-up, such as during investigations or while awaiting results, were particularly exhausting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts on mobility included no longer being able to ride a bicycle due to saddle pain and the need to use a walking stick for getting around.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients expressed doubts about treatment effectiveness and purpose, especially regarding prevention of recurrence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emphasis was placed on the need for expanded early detection campaigns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suggestions included melanoma days for widespread screening and involving dermatology students to enhance access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients called for innovation in techniques and devices for improved early melanoma detection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatments were considered very time-consuming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain treatments necessitated hospital visits every 3 weeks. These visits typically occupied an entire day, involving substantial travel time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The invisibility of treatment effectiveness caused stress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery sometimes impacted mobility and also caused aesthetic side-effects, causing distress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment side-effects limited engagement in meaningful activities. Due to a weakened state, there was an inability to engage in physical activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of side effects from certain treatments sometimes led to treatment refusal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients reported coping with a heavy administrative burden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of humanity from healthcare professionals was sometimes noted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need for a better multidisciplinary approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-optimal communication was sometimes used to deliver diagnoses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quality of information was emphasised over quantity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussing the disease was an important criterion for satisfaction.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients' preference was for proactive receipt of information rather than independent searching.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There was an expressed need for more information about surgery and its impacts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty in finding useful information pitched at the right level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbalance in available information between French- and Dutch-speaking patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need for clear and understandable information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment options were sometimes perceived as limited and rigid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some preferred not to be involved in decisions due to feeling unqualified.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The decision to seek medical help for first symptoms was triggered by the onset of new symptoms, advice from relatives, or awareness campaigns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lack of awareness of individual melanoma risk led patients to overlook preventive measures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifying melanoma was sometimes challenging, as some were first diagnosed as benign conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missed initial diagnoses led to distrust and to a persistent fear of overlooking new lesions or disease progression." The period between initial suspicion and diagnosis was perceived as very stressful with prolonged waits for surgery or scans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need for more effective diagnostic tools and technologies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lack of dermatologists significantly delayed access to care, leading to long waiting times and complex care journeys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty scheduling appointments and geographic challenges hindered access sometimes. In specific situations, there was a preference for local treatment options over distant university hospitals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inaccessibility of psychological support due to limited availability and insufficient reimbursement of fees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimal or no healthcare out-of-pocket expenses, with even expensive treatments fully reimbursed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial strain was reported by some due to medical expenses that included healthcare consultations, non-reimbursed paramedical sessions like osteopathy, and purchases of medical supplies such as crutches and sunscreen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regular hospital parking expenses contributed to increased overall costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant costs of supportive or "well-being" services (e.g., massages, pedicures, home arrangements like stairlifts) were noted, often without reimbursement by health insurance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adverse psychological consequences affected participants' relatives and their relationships.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cytostatic drugs are toxic chemicals classified as hazardous under the Waste Framework Directive of the European Commission.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cancer diagnosis appeared as a shock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The terms cancer and melanoma provoked anxiety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanoma generated fear of recurrence and death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes in temperament (e.g., increased irritability) affected relationships.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feelings of loneliness and abandonment were sometimes compared to being imprisoned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients reported fear of exhausting all possible treatments and facing an incurable situation, highlighting the importance of maintaining hope in other therapies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To limit the psychological impact of melanoma, coping mechanisms included putting things in perspective, relaxing, staying distracted with activities, or adapting the environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient associations, like Facebook pages and videos, offered valuable information and support for some patients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involvement in these groups included emotionally challenging experiences, such as announcements of deaths or unexpected relapses years after treatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need of a dedicated support person to guide individuals through their healthcare journeys, assisting with communication and administrative tasks.</t>
   </si>
   <si>
     <t xml:space="preserve">This fatigue is overwhelming, it could come up after an activity, even a light one such as wash dishing, at the end of the day or suddenly without any clear explanation.</t>
@@ -224,187 +374,37 @@
     <t xml:space="preserve">The fatigue could also have a negative impact on the sexual activity (erection problems and decreased libido).</t>
   </si>
   <si>
+    <t xml:space="preserve">Variety of symptoms and uncertainties about long COVID result in an unstandardized treatment approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also reported creating their own treatment regimens, including medications, food supplements, and techniques to improve their condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconventional therapies are sought after when traditional medicine fails to provide relief.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute COVID-19 is not always diagnosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of objective criteria to diagnose Long COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several patients self-diagnosed their long COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of a formal diagnosis creates uncertainty and hampers an adequate management of Long COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of comprehensive diagnostic approach: diagnosis often on a symptom-by-symptom basis</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Variety of symptoms and the many uncertainties about long COVID results in unstandardized treatment approach.</t>
   </si>
   <si>
     <t xml:space="preserve">Unconventional therapies: patients search for solutions when traditional medicine does not help them.</t>
   </si>
   <si>
-    <t xml:space="preserve">Variety of symptoms and uncertainties about long COVID result in an unstandardized treatment approach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also reported creating their own treatment regimens, including medications, food supplements, and techniques to improve their condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconventional therapies are sought after when traditional medicine fails to provide relief.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute COVID-19 is not always diagnosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of objective criteria to diagnose Long COVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Several patients self-diagnosed their long COVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of a formal diagnosis creates uncertainty and hampers an adequate management of Long COVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of comprehensive diagnostic approach: diagnosis often on a symptom-by-symptom basis</t>
-  </si>
-  <si>
     <t xml:space="preserve">Includes purchases and adaptations related to long COVID that are not direct medical expenses or alternative therapies. Examples include buying an electric bicycle for limited physical capacity, purchasing protective equipment (e.g., masks), additional household costs, and increased transport costs (e.g., frequent medical visits).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impacts on mobility included no longer being able to ride a bicycle due to saddle pain and the need to use a walking stick for getting around.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluctuating and unpredictable energy levels impacted the ability to commit to activities and maintain reliability, and limited social interactions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Periods of intense medical follow-up, such as during investigations or while awaiting results, were particularly exhausting.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cancer diagnosis appeared as a shock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The terms cancer and melanoma provoked anxiety.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma generated fear of recurrence and death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes in temperament (e.g., increased irritability) affected relationships.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feelings of loneliness and abandonment were sometimes compared to being imprisoned.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients reported fear of exhausting all possible treatments and facing an incurable situation, highlighting the importance of maintaining hope in other therapies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To limit the psychological impact of melanoma, coping mechanisms included putting things in perspective, relaxing, staying distracted with activities, or adapting the environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lack of dermatologists significantly delayed access to care, leading to long waiting times and complex care journeys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty scheduling appointments and geographic challenges hindered access sometimes. In specific situations, there was a preference for local treatment options over distant university hospitals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inaccessibility of psychological support due to limited availability and insufficient reimbursement of fees.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surgery sometimes impacted mobility and also caused aesthetic side-effects, causing distress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment side-effects limited engagement in meaningful activities. Due to a weakened state, there was an inability to engage in physical activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fear of side effects from certain treatments sometimes led to treatment refusal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatments were considered very time-consuming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certain treatments necessitated hospital visits every 3 weeks. These visits typically occupied an entire day, involving substantial travel time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The invisibility of treatment effectiveness caused stress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients expressed doubts about treatment effectiveness and purpose, especially regarding prevention of recurrence.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emphasis was placed on the need for expanded early detection campaigns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suggestions included melanoma days for widespread screening and involving dermatology students to enhance access.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients called for innovation in techniques and devices for improved early melanoma detection.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty in finding useful information pitched at the right level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbalance in available information between French- and Dutch-speaking patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need for clear and understandable information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The decision to seek medical help for first symptoms was triggered by the onset of new symptoms, advice from relatives, or awareness campaigns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lack of awareness of individual melanoma risk led patients to overlook preventive measures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Identifying melanoma was sometimes challenging, as some were first diagnosed as benign conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Missed initial diagnoses led to distrust and to a persistent fear of overlooking new lesions or disease progression." The period between initial suspicion and diagnosis was perceived as very stressful with prolonged waits for surgery or scans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need for more effective diagnostic tools and technologies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients reported coping with a heavy administrative burden.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of humanity from healthcare professionals was sometimes noted.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need for a better multidisciplinary approach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment options were sometimes perceived as limited and rigid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some preferred not to be involved in decisions due to feeling unqualified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-optimal communication was sometimes used to deliver diagnoses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The quality of information was emphasised over quantity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discussing the disease was an important criterion for satisfaction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients' preference was for proactive receipt of information rather than independent searching.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">There was an expressed need for more information about surgery and its impacts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regular hospital parking expenses contributed to increased overall costs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Significant costs of supportive or "well-being" services (e.g., massages, pedicures, home arrangements like stairlifts) were noted, often without reimbursement by health insurance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimal or no healthcare out-of-pocket expenses, with even expensive treatments fully reimbursed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial strain was reported by some due to medical expenses that included healthcare consultations, non-reimbursed paramedical sessions like osteopathy, and purchases of medical supplies such as crutches and sunscreen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient associations, like Facebook pages and videos, offered valuable information and support for some patients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involvement in these groups included emotionally challenging experiences, such as announcements of deaths or unexpected relapses years after treatment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need of a dedicated support person to guide individuals through their healthcare journeys, assisting with communication and administrative tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adverse psychological consequences affected participants' relatives and their relationships.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cytostatic drugs are toxic chemicals classified as hazardous under the Waste Framework Directive of the European Commission.</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -754,7 +754,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -762,7 +762,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -770,23 +770,23 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -810,55 +810,55 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -866,47 +866,47 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
         <v>23</v>
@@ -978,7 +978,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
         <v>24</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
         <v>27</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
         <v>28</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>29</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
         <v>30</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
         <v>31</v>
@@ -1042,7 +1042,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
         <v>33</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
         <v>34</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B42" t="s">
         <v>35</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
         <v>39</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
         <v>40</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
         <v>41</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55" t="s">
         <v>48</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
@@ -1186,114 +1186,114 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71">
@@ -1314,7 +1314,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>62</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>63</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
         <v>68</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>69</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s">
         <v>70</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
         <v>71</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B83" t="s">
         <v>72</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B84" t="s">
         <v>73</v>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B85" t="s">
         <v>74</v>
@@ -1418,727 +1418,727 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B86" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B87" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B88" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B93" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>141</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="B95" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="B110" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B111" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="B114" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>152</v>
+        <v>109</v>
       </c>
       <c r="B115" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="B116" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B122" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="B124" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="B125" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="B126" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B127" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B128" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>154</v>
+        <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B130" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="B131" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B132" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B133" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="B134" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B135" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="B136" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B137" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="B138" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="B139" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B141" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B142" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B143" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B144" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="B145" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B146" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="B147" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B148" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B149" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B150" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B151" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B152" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B153" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="B154" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B155" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B156" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="B157" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B158" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B159" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B160" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="B161" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B162" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="B163" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B164" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B165" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="B167" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="B168" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B169" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B170" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="B171" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B172" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B173" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B174" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="B175" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B176" t="s">
         <v>108</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B177" t="s">
         <v>109</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B178" t="s">
         <v>110</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="B179" t="s">
         <v>111</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B180" t="s">
         <v>112</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B181" t="s">
         <v>113</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="B182" t="s">
         <v>114</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B183" t="s">
         <v>115</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="B184" t="s">
         <v>116</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B185" t="s">
         <v>117</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B186" t="s">
         <v>118</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="B187" t="s">
         <v>119</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B188" t="s">
         <v>120</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B189" t="s">
         <v>121</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B191" t="s">
         <v>123</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B192" t="s">
         <v>124</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B193" t="s">
         <v>125</v>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B196" t="s">
         <v>128</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B197" t="s">
         <v>129</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B198" t="s">
         <v>130</v>

--- a/Data/Cleaned/df_dta_kp_cleaned.xlsx
+++ b/Data/Cleaned/df_dta_kp_cleaned.xlsx
@@ -12,23 +12,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
-  <si>
-    <t xml:space="preserve">ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+  <si>
+    <t xml:space="preserve">ID_kp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_dta</t>
   </si>
   <si>
     <t xml:space="preserve">KEY_POINT</t>
   </si>
   <si>
+    <t xml:space="preserve">Need to spend long hours in the restroom.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patients reported uncertainty about whether symptoms were directly caused by the disease or related to treatment side-effects.</t>
   </si>
   <si>
     <t xml:space="preserve">Intense fatigue and a permanent state of weakness  impacted their daily activities (e.g. driving) and required increased rest.</t>
   </si>
   <si>
-    <t xml:space="preserve">Need to spend long hours in the restroom.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stress stemmed from the fear of disease progression or worsening over time.</t>
   </si>
   <si>
@@ -59,6 +62,24 @@
     <t xml:space="preserve">Need to make the illness more visible to loved ones to convey its reality.</t>
   </si>
   <si>
+    <t xml:space="preserve">Side-effects following surgery, such as physical transformations (e.g., a deformed belly resembling pregnancy), were burdensome in daily life.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Due to medication constraints, there were questions about the worth of continuing treatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desire to stop medication was noted, citing severe side effects or aiming for personal goals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stopping treatment was seen as a sign of recovery, despite understanding the disease as incurable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncertainty about treatment effectiveness and side effects impacted mental health.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Treatment burden included: constraints on activities related to time-consuming treatments (e.g., perfusions) and regular hospital visits, practical issues, like storing self-administered injections in the refrigerator and difficulty maintaining long-term treatment discipline without close clinician follow-up.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multiple treatments were often attempted before finding an effective one.</t>
   </si>
   <si>
@@ -77,22 +98,16 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">Uncertainty about treatment effectiveness and side effects impacted mental health.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Treatment burden included: constraints on activities related to time-consuming treatments (e.g., perfusions) and regular hospital visits, practical issues, like storing self-administered injections in the refrigerator and difficulty maintaining long-term treatment discipline without close clinician follow-up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Side-effects following surgery, such as physical transformations (e.g., a deformed belly resembling pregnancy), were burdensome in daily life.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due to medication constraints, there were questions about the worth of continuing treatment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desire to stop medication was noted, citing severe side effects or aiming for personal goals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stopping treatment was seen as a sign of recovery, despite understanding the disease as incurable.</t>
+    <t xml:space="preserve">While generally finding the received information to be clear, there was a desire for more detailed explanations. Topics included potential disease progression, treatment side-effects, and rationale behind treatment recommendations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-specific symptoms often resulted in initial differential diagnoses centred on common gastrointestinal issues, causing frustration among patients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The expertise of GPs familiar with Crohn's could expedite diagnosis. Correct diagnosis was sometimes received only at university hospitals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartmentalisation of medical specialisations sometimes delayed recognition of broader systemic issues.</t>
   </si>
   <si>
     <t xml:space="preserve">Patients were generally satisfied the with follow-up but highlighted some limitations: Perceived lack of physician competence included handling post-operative complications, medication dosages, and professionalism. Healthcare professionals, including nurses, seemed generally unavailable. Some consultations were too brief, often concluding with just a prescription for tests or medication. Limited availability of specialists and rotations between senior and junior staff impacted care quality. Patients felt like numbers due to busy medical staff and overwhelmed doctors. Criticism of a lack of holistic approach: over-specialization led to fragmented care and challenges in navigating different medical specializations</t>
@@ -104,6 +119,15 @@
     <t xml:space="preserve">A need for better psychological care and reimbursement: Patients expressed the need for psychological support alongside drug treatments and medical procedures. Additional support needs included dieticians, physiotherapists, therapeutic massages, and spa sessions for well-being.</t>
   </si>
   <si>
+    <t xml:space="preserve">Involvement in treatment choice varied: some patients had the final say, while others felt obligated to follow prescriptions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patients generally trusted doctors’ expertise, but some hesitated to challenge the recommendations, even though they feared contradicting the doctor’s authority.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patients' input was not always heard.</t>
+  </si>
+  <si>
     <t xml:space="preserve">The quality of information was perceived to be better in university hospitals.</t>
   </si>
   <si>
@@ -119,25 +143,28 @@
     <t xml:space="preserve">Negative experiences involved a lack of compassion, insufficient time for explanations, and unclear information.</t>
   </si>
   <si>
-    <t xml:space="preserve">While generally finding the received information to be clear, there was a desire for more detailed explanations. Topics included potential disease progression, treatment side-effects, and rationale behind treatment recommendations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involvement in treatment choice varied: some patients had the final say, while others felt obligated to follow prescriptions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patients generally trusted doctors’ expertise, but some hesitated to challenge the recommendations, even though they feared contradicting the doctor’s authority.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patients' input was not always heard.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-specific symptoms often resulted in initial differential diagnoses centred on common gastrointestinal issues, causing frustration among patients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The expertise of GPs familiar with Crohn's could expedite diagnosis. Correct diagnosis was sometimes received only at university hospitals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartmentalisation of medical specialisations sometimes delayed recognition of broader systemic issues.</t>
+    <t xml:space="preserve">Indirect costs such as parking fees, household help, toilet access fees, and nappies during flare-ups significantly impacted the finances of some patients, especially in the long-term.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patients experienced rising life insurance premiums due to Crohn's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private health insurance often excluded coverage for Crohn's.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patients expressed a wish for fair compensation for relative caregivers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The accumulation of non-reimbursed expenses over time had a significant financial impact.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Some treatments and investigations were minimally reimbursed or not reimbursed at all.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expenses also included food supplements like probiotics and vitamins, which are not reimbursed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Private insurance helped limit some of these costs.</t>
   </si>
   <si>
     <t xml:space="preserve">Symptoms of CD make it challenging to thrive in sexual life.</t>
@@ -194,28 +221,46 @@
     <t xml:space="preserve">Despite constraints, patients aimed to continue working as if not ill.</t>
   </si>
   <si>
-    <t xml:space="preserve">The accumulation of non-reimbursed expenses over time had a significant financial impact.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Some treatments and investigations were minimally reimbursed or not reimbursed at all.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expenses also included food supplements like probiotics and vitamins, which are not reimbursed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Private insurance helped limit some of these costs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indirect costs such as parking fees, household help, toilet access fees, and nappies during flare-ups significantly impacted the finances of some patients, especially in the long-term.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patients experienced rising life insurance premiums due to Crohn's.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Private health insurance often excluded coverage for Crohn's.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Patients expressed a wish for fair compensation for relative caregivers.</t>
+    <t xml:space="preserve">This fatigue is overwhelming, it could come up after an activity, even a light one such as wash dishing, at the end of the day or suddenly without any clear explanation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The fatigue could also have a negative impact on the sexual activity (erection problems and decreased libido).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Variety of symptoms and the many uncertainties about long COVID results in unstandardized treatment approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconventional therapies: patients search for solutions when traditional medicine does not help them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variety of symptoms and uncertainties about long COVID result in an unstandardized treatment approach.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also reported creating their own treatment regimens, including medications, food supplements, and techniques to improve their condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconventional therapies are sought after when traditional medicine fails to provide relief.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acute COVID-19 is not always diagnosed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of objective criteria to diagnose Long COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several patients self-diagnosed their long COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of a formal diagnosis creates uncertainty and hampers an adequate management of Long COVID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of comprehensive diagnostic approach: diagnosis often on a symptom-by-symptom basis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes purchases and adaptations related to long COVID that are not direct medical expenses or alternative therapies. Examples include buying an electric bicycle for limited physical capacity, purchasing protective equipment (e.g., masks), additional household costs, and increased transport costs (e.g., frequent medical visits).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impacts on mobility included no longer being able to ride a bicycle due to saddle pain and the need to use a walking stick for getting around.</t>
   </si>
   <si>
     <t xml:space="preserve">Fluctuating and unpredictable energy levels impacted the ability to commit to activities and maintain reliability, and limited social interactions.</t>
@@ -224,7 +269,52 @@
     <t xml:space="preserve">Periods of intense medical follow-up, such as during investigations or while awaiting results, were particularly exhausting.</t>
   </si>
   <si>
-    <t xml:space="preserve">Impacts on mobility included no longer being able to ride a bicycle due to saddle pain and the need to use a walking stick for getting around.</t>
+    <t xml:space="preserve">The cancer diagnosis appeared as a shock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The terms cancer and melanoma provoked anxiety.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melanoma generated fear of recurrence and death.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changes in temperament (e.g., increased irritability) affected relationships.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feelings of loneliness and abandonment were sometimes compared to being imprisoned.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patients reported fear of exhausting all possible treatments and facing an incurable situation, highlighting the importance of maintaining hope in other therapies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To limit the psychological impact of melanoma, coping mechanisms included putting things in perspective, relaxing, staying distracted with activities, or adapting the environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lack of dermatologists significantly delayed access to care, leading to long waiting times and complex care journeys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difficulty scheduling appointments and geographic challenges hindered access sometimes. In specific situations, there was a preference for local treatment options over distant university hospitals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inaccessibility of psychological support due to limited availability and insufficient reimbursement of fees.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgery sometimes impacted mobility and also caused aesthetic side-effects, causing distress.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatment side-effects limited engagement in meaningful activities. Due to a weakened state, there was an inability to engage in physical activity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear of side effects from certain treatments sometimes led to treatment refusal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treatments were considered very time-consuming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certain treatments necessitated hospital visits every 3 weeks. These visits typically occupied an entire day, involving substantial travel time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The invisibility of treatment effectiveness caused stress.</t>
   </si>
   <si>
     <t xml:space="preserve">Patients expressed doubts about treatment effectiveness and purpose, especially regarding prevention of recurrence.</t>
@@ -239,22 +329,28 @@
     <t xml:space="preserve">Patients called for innovation in techniques and devices for improved early melanoma detection.</t>
   </si>
   <si>
-    <t xml:space="preserve">Treatments were considered very time-consuming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Certain treatments necessitated hospital visits every 3 weeks. These visits typically occupied an entire day, involving substantial travel time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The invisibility of treatment effectiveness caused stress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surgery sometimes impacted mobility and also caused aesthetic side-effects, causing distress.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment side-effects limited engagement in meaningful activities. Due to a weakened state, there was an inability to engage in physical activity.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fear of side effects from certain treatments sometimes led to treatment refusal.</t>
+    <t xml:space="preserve">Difficulty in finding useful information pitched at the right level.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inbalance in available information between French- and Dutch-speaking patients</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need for clear and understandable information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The decision to seek medical help for first symptoms was triggered by the onset of new symptoms, advice from relatives, or awareness campaigns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lack of awareness of individual melanoma risk led patients to overlook preventive measures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Identifying melanoma was sometimes challenging, as some were first diagnosed as benign conditions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missed initial diagnoses led to distrust and to a persistent fear of overlooking new lesions or disease progression." The period between initial suspicion and diagnosis was perceived as very stressful with prolonged waits for surgery or scans.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need for more effective diagnostic tools and technologies.</t>
   </si>
   <si>
     <t xml:space="preserve">Patients reported coping with a heavy administrative burden.</t>
@@ -266,6 +362,12 @@
     <t xml:space="preserve">Need for a better multidisciplinary approach.</t>
   </si>
   <si>
+    <t xml:space="preserve">Treatment options were sometimes perceived as limited and rigid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some preferred not to be involved in decisions due to feeling unqualified.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sub-optimal communication was sometimes used to deliver diagnoses.</t>
   </si>
   <si>
@@ -281,43 +383,10 @@
     <t xml:space="preserve">There was an expressed need for more information about surgery and its impacts.</t>
   </si>
   <si>
-    <t xml:space="preserve">Difficulty in finding useful information pitched at the right level.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inbalance in available information between French- and Dutch-speaking patients</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need for clear and understandable information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Treatment options were sometimes perceived as limited and rigid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some preferred not to be involved in decisions due to feeling unqualified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The decision to seek medical help for first symptoms was triggered by the onset of new symptoms, advice from relatives, or awareness campaigns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lack of awareness of individual melanoma risk led patients to overlook preventive measures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Identifying melanoma was sometimes challenging, as some were first diagnosed as benign conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Missed initial diagnoses led to distrust and to a persistent fear of overlooking new lesions or disease progression." The period between initial suspicion and diagnosis was perceived as very stressful with prolonged waits for surgery or scans.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need for more effective diagnostic tools and technologies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lack of dermatologists significantly delayed access to care, leading to long waiting times and complex care journeys.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difficulty scheduling appointments and geographic challenges hindered access sometimes. In specific situations, there was a preference for local treatment options over distant university hospitals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inaccessibility of psychological support due to limited availability and insufficient reimbursement of fees.</t>
+    <t xml:space="preserve">Regular hospital parking expenses contributed to increased overall costs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Significant costs of supportive or "well-being" services (e.g., massages, pedicures, home arrangements like stairlifts) were noted, often without reimbursement by health insurance.</t>
   </si>
   <si>
     <t xml:space="preserve">Minimal or no healthcare out-of-pocket expenses, with even expensive treatments fully reimbursed.</t>
@@ -326,85 +395,19 @@
     <t xml:space="preserve">Financial strain was reported by some due to medical expenses that included healthcare consultations, non-reimbursed paramedical sessions like osteopathy, and purchases of medical supplies such as crutches and sunscreen.</t>
   </si>
   <si>
-    <t xml:space="preserve">Regular hospital parking expenses contributed to increased overall costs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Significant costs of supportive or "well-being" services (e.g., massages, pedicures, home arrangements like stairlifts) were noted, often without reimbursement by health insurance.</t>
+    <t xml:space="preserve">Patient associations, like Facebook pages and videos, offered valuable information and support for some patients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Involvement in these groups included emotionally challenging experiences, such as announcements of deaths or unexpected relapses years after treatment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Need of a dedicated support person to guide individuals through their healthcare journeys, assisting with communication and administrative tasks.</t>
   </si>
   <si>
     <t xml:space="preserve">Adverse psychological consequences affected participants' relatives and their relationships.</t>
   </si>
   <si>
     <t xml:space="preserve">Cytostatic drugs are toxic chemicals classified as hazardous under the Waste Framework Directive of the European Commission.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cancer diagnosis appeared as a shock.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The terms cancer and melanoma provoked anxiety.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melanoma generated fear of recurrence and death.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changes in temperament (e.g., increased irritability) affected relationships.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feelings of loneliness and abandonment were sometimes compared to being imprisoned.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients reported fear of exhausting all possible treatments and facing an incurable situation, highlighting the importance of maintaining hope in other therapies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To limit the psychological impact of melanoma, coping mechanisms included putting things in perspective, relaxing, staying distracted with activities, or adapting the environment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient associations, like Facebook pages and videos, offered valuable information and support for some patients.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Involvement in these groups included emotionally challenging experiences, such as announcements of deaths or unexpected relapses years after treatment.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Need of a dedicated support person to guide individuals through their healthcare journeys, assisting with communication and administrative tasks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This fatigue is overwhelming, it could come up after an activity, even a light one such as wash dishing, at the end of the day or suddenly without any clear explanation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The fatigue could also have a negative impact on the sexual activity (erection problems and decreased libido).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Variety of symptoms and uncertainties about long COVID result in an unstandardized treatment approach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also reported creating their own treatment regimens, including medications, food supplements, and techniques to improve their condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconventional therapies are sought after when traditional medicine fails to provide relief.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acute COVID-19 is not always diagnosed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of objective criteria to diagnose Long COVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Several patients self-diagnosed their long COVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of a formal diagnosis creates uncertainty and hampers an adequate management of Long COVID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lack of comprehensive diagnostic approach: diagnosis often on a symptom-by-symptom basis</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Variety of symptoms and the many uncertainties about long COVID results in unstandardized treatment approach.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconventional therapies: patients search for solutions when traditional medicine does not help them.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Includes purchases and adaptations related to long COVID that are not direct medical expenses or alternative therapies. Examples include buying an electric bicycle for limited physical capacity, purchasing protective equipment (e.g., masks), additional household costs, and increased transport costs (e.g., frequent medical visits).</t>
   </si>
 </sst>
 </file>
@@ -743,1581 +746,2175 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>36</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>36</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
-        <v>6</v>
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>55</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>55</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>56</v>
-      </c>
-      <c r="B28" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>56</v>
-      </c>
-      <c r="B29" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>23</v>
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>57</v>
-      </c>
-      <c r="B31" t="s">
-        <v>24</v>
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>64</v>
-      </c>
-      <c r="B34" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>64</v>
-      </c>
-      <c r="B35" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>68</v>
+      </c>
+      <c r="C35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>68</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>65</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>65</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>65</v>
-      </c>
-      <c r="B40" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>69</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>34</v>
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>70</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>70</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>70</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67</v>
-      </c>
-      <c r="B44" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>71</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>38</v>
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>71</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>41</v>
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>71</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>72</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>71</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>72</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>71</v>
-      </c>
-      <c r="B51" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>72</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>71</v>
-      </c>
-      <c r="B52" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>72</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>71</v>
-      </c>
-      <c r="B53" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>73</v>
+      </c>
+      <c r="C53" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>71</v>
-      </c>
-      <c r="B54" t="s">
-        <v>47</v>
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>73</v>
+      </c>
+      <c r="C54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>71</v>
-      </c>
-      <c r="B55" t="s">
-        <v>48</v>
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>49</v>
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>73</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>71</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>74</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>71</v>
-      </c>
-      <c r="B58" t="s">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>71</v>
-      </c>
-      <c r="B59" t="s">
-        <v>52</v>
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>71</v>
-      </c>
-      <c r="B60" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>72</v>
-      </c>
-      <c r="B61" t="s">
-        <v>54</v>
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>72</v>
-      </c>
-      <c r="B62" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>72</v>
-      </c>
-      <c r="B63" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>72</v>
-      </c>
-      <c r="B64" t="s">
-        <v>57</v>
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>72</v>
-      </c>
-      <c r="B65" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>72</v>
-      </c>
-      <c r="B66" t="s">
-        <v>59</v>
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>73</v>
-      </c>
-      <c r="B67" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>73</v>
-      </c>
-      <c r="B68" t="s">
-        <v>61</v>
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>73</v>
-      </c>
-      <c r="B69" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>73</v>
-      </c>
-      <c r="B70" t="s">
-        <v>63</v>
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>75</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>74</v>
-      </c>
-      <c r="B71" t="s">
-        <v>60</v>
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>74</v>
-      </c>
-      <c r="B72" t="s">
-        <v>61</v>
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>75</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>62</v>
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>74</v>
-      </c>
-      <c r="B74" t="s">
-        <v>63</v>
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>65</v>
+      <c r="B76" t="n">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>66</v>
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>67</v>
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>81</v>
-      </c>
-      <c r="B79" t="s">
-        <v>68</v>
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>102</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>102</v>
+      </c>
+      <c r="C80" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>97</v>
-      </c>
-      <c r="B81" t="s">
-        <v>70</v>
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>117</v>
+      </c>
+      <c r="C81" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>99</v>
-      </c>
-      <c r="B82" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>117</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>99</v>
-      </c>
-      <c r="B83" t="s">
-        <v>72</v>
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>119</v>
+      </c>
+      <c r="C83" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>99</v>
-      </c>
-      <c r="B84" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>99</v>
-      </c>
-      <c r="B85" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>119</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>100</v>
-      </c>
-      <c r="B87" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>100</v>
-      </c>
-      <c r="B88" t="s">
-        <v>73</v>
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>120</v>
+      </c>
+      <c r="C88" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>100</v>
-      </c>
-      <c r="B89" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>120</v>
+      </c>
+      <c r="C89" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>101</v>
-      </c>
-      <c r="B90" t="s">
-        <v>75</v>
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>101</v>
-      </c>
-      <c r="B91" t="s">
-        <v>76</v>
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>121</v>
+      </c>
+      <c r="C91" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>101</v>
-      </c>
-      <c r="B92" t="s">
-        <v>77</v>
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>135</v>
+      </c>
+      <c r="C92" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>102</v>
-      </c>
-      <c r="B93" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>102</v>
-      </c>
-      <c r="B94" t="s">
-        <v>79</v>
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>141</v>
+      </c>
+      <c r="C94" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>102</v>
-      </c>
-      <c r="B95" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>150</v>
+      </c>
+      <c r="C95" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>103</v>
-      </c>
-      <c r="B96" t="s">
-        <v>78</v>
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>150</v>
+      </c>
+      <c r="C96" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>103</v>
-      </c>
-      <c r="B97" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>150</v>
+      </c>
+      <c r="C97" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>103</v>
-      </c>
-      <c r="B98" t="s">
-        <v>80</v>
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>150</v>
+      </c>
+      <c r="C98" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>104</v>
-      </c>
-      <c r="B99" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>150</v>
+      </c>
+      <c r="C99" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>104</v>
-      </c>
-      <c r="B100" t="s">
-        <v>79</v>
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>150</v>
+      </c>
+      <c r="C100" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>104</v>
-      </c>
-      <c r="B101" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>150</v>
+      </c>
+      <c r="C101" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>105</v>
-      </c>
-      <c r="B102" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>105</v>
-      </c>
-      <c r="B103" t="s">
-        <v>79</v>
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>151</v>
+      </c>
+      <c r="C103" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>105</v>
-      </c>
-      <c r="B104" t="s">
-        <v>80</v>
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>151</v>
+      </c>
+      <c r="C104" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>78</v>
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>151</v>
+      </c>
+      <c r="C105" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>106</v>
-      </c>
-      <c r="B106" t="s">
-        <v>79</v>
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>151</v>
+      </c>
+      <c r="C106" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>106</v>
       </c>
-      <c r="B107" t="s">
-        <v>80</v>
+      <c r="B107" t="n">
+        <v>151</v>
+      </c>
+      <c r="C107" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>107</v>
       </c>
-      <c r="B108" t="s">
-        <v>78</v>
+      <c r="B108" t="n">
+        <v>151</v>
+      </c>
+      <c r="C108" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>79</v>
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>152</v>
+      </c>
+      <c r="C109" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>107</v>
-      </c>
-      <c r="B110" t="s">
-        <v>80</v>
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>152</v>
+      </c>
+      <c r="C110" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>108</v>
-      </c>
-      <c r="B111" t="s">
-        <v>78</v>
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>152</v>
+      </c>
+      <c r="C111" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>108</v>
-      </c>
-      <c r="B112" t="s">
-        <v>79</v>
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>152</v>
+      </c>
+      <c r="C112" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>108</v>
-      </c>
-      <c r="B113" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>152</v>
+      </c>
+      <c r="C113" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>109</v>
-      </c>
-      <c r="B114" t="s">
-        <v>81</v>
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>152</v>
+      </c>
+      <c r="C114" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>109</v>
-      </c>
-      <c r="B115" t="s">
-        <v>82</v>
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>152</v>
+      </c>
+      <c r="C115" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>109</v>
-      </c>
-      <c r="B116" t="s">
-        <v>83</v>
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>153</v>
+      </c>
+      <c r="C116" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>110</v>
-      </c>
-      <c r="B117" t="s">
-        <v>84</v>
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>153</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>110</v>
-      </c>
-      <c r="B118" t="s">
-        <v>85</v>
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>153</v>
+      </c>
+      <c r="C118" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>110</v>
-      </c>
-      <c r="B119" t="s">
-        <v>86</v>
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>153</v>
+      </c>
+      <c r="C119" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>110</v>
-      </c>
-      <c r="B120" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>153</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>110</v>
-      </c>
-      <c r="B121" t="s">
-        <v>88</v>
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>153</v>
+      </c>
+      <c r="C121" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111</v>
-      </c>
-      <c r="B122" t="s">
-        <v>89</v>
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>153</v>
+      </c>
+      <c r="C122" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111</v>
-      </c>
-      <c r="B123" t="s">
-        <v>90</v>
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>154</v>
+      </c>
+      <c r="C123" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111</v>
-      </c>
-      <c r="B124" t="s">
-        <v>91</v>
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>154</v>
+      </c>
+      <c r="C124" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>112</v>
-      </c>
-      <c r="B125" t="s">
-        <v>92</v>
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>154</v>
+      </c>
+      <c r="C125" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>112</v>
-      </c>
-      <c r="B126" t="s">
-        <v>93</v>
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>154</v>
+      </c>
+      <c r="C126" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>113</v>
-      </c>
-      <c r="B127" t="s">
-        <v>94</v>
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>154</v>
+      </c>
+      <c r="C127" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>113</v>
-      </c>
-      <c r="B128" t="s">
-        <v>95</v>
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>154</v>
+      </c>
+      <c r="C128" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>113</v>
-      </c>
-      <c r="B129" t="s">
-        <v>96</v>
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>154</v>
+      </c>
+      <c r="C129" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>113</v>
-      </c>
-      <c r="B130" t="s">
-        <v>97</v>
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>155</v>
+      </c>
+      <c r="C130" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>113</v>
-      </c>
-      <c r="B131" t="s">
-        <v>98</v>
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>155</v>
+      </c>
+      <c r="C131" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>114</v>
-      </c>
-      <c r="B132" t="s">
-        <v>99</v>
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>155</v>
+      </c>
+      <c r="C132" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>114</v>
-      </c>
-      <c r="B133" t="s">
-        <v>100</v>
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>155</v>
+      </c>
+      <c r="C133" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>114</v>
-      </c>
-      <c r="B134" t="s">
-        <v>101</v>
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>155</v>
+      </c>
+      <c r="C134" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>117</v>
-      </c>
-      <c r="B135" t="s">
-        <v>102</v>
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>155</v>
+      </c>
+      <c r="C135" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>117</v>
-      </c>
-      <c r="B136" t="s">
-        <v>103</v>
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>155</v>
+      </c>
+      <c r="C136" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>118</v>
-      </c>
-      <c r="B137" t="s">
-        <v>104</v>
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>157</v>
+      </c>
+      <c r="C137" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>118</v>
-      </c>
-      <c r="B138" t="s">
-        <v>105</v>
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>157</v>
+      </c>
+      <c r="C138" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>121</v>
-      </c>
-      <c r="B139" t="s">
-        <v>106</v>
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>157</v>
+      </c>
+      <c r="C139" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>125</v>
-      </c>
-      <c r="B140" t="s">
-        <v>107</v>
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>158</v>
+      </c>
+      <c r="C140" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>131</v>
-      </c>
-      <c r="B141" t="s">
-        <v>108</v>
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>158</v>
+      </c>
+      <c r="C141" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>131</v>
-      </c>
-      <c r="B142" t="s">
-        <v>109</v>
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>158</v>
+      </c>
+      <c r="C142" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>131</v>
-      </c>
-      <c r="B143" t="s">
-        <v>110</v>
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>159</v>
+      </c>
+      <c r="C143" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>131</v>
-      </c>
-      <c r="B144" t="s">
-        <v>111</v>
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>159</v>
+      </c>
+      <c r="C144" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>131</v>
-      </c>
-      <c r="B145" t="s">
-        <v>112</v>
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>159</v>
+      </c>
+      <c r="C145" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>131</v>
-      </c>
-      <c r="B146" t="s">
-        <v>113</v>
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>160</v>
+      </c>
+      <c r="C146" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>131</v>
-      </c>
-      <c r="B147" t="s">
-        <v>114</v>
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>160</v>
+      </c>
+      <c r="C147" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>132</v>
-      </c>
-      <c r="B148" t="s">
-        <v>108</v>
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>160</v>
+      </c>
+      <c r="C148" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>132</v>
-      </c>
-      <c r="B149" t="s">
-        <v>109</v>
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>161</v>
+      </c>
+      <c r="C149" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>132</v>
-      </c>
-      <c r="B150" t="s">
-        <v>110</v>
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>161</v>
+      </c>
+      <c r="C150" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>132</v>
-      </c>
-      <c r="B151" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>161</v>
+      </c>
+      <c r="C151" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>132</v>
-      </c>
-      <c r="B152" t="s">
-        <v>112</v>
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>162</v>
+      </c>
+      <c r="C152" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>132</v>
-      </c>
-      <c r="B153" t="s">
-        <v>113</v>
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>162</v>
+      </c>
+      <c r="C153" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>132</v>
-      </c>
-      <c r="B154" t="s">
-        <v>114</v>
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>162</v>
+      </c>
+      <c r="C154" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>133</v>
-      </c>
-      <c r="B155" t="s">
-        <v>108</v>
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>163</v>
+      </c>
+      <c r="C155" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>133</v>
-      </c>
-      <c r="B156" t="s">
-        <v>109</v>
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>163</v>
+      </c>
+      <c r="C156" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>133</v>
-      </c>
-      <c r="B157" t="s">
-        <v>110</v>
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>163</v>
+      </c>
+      <c r="C157" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>133</v>
-      </c>
-      <c r="B158" t="s">
-        <v>111</v>
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>164</v>
+      </c>
+      <c r="C158" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>133</v>
-      </c>
-      <c r="B159" t="s">
-        <v>112</v>
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>164</v>
+      </c>
+      <c r="C159" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>133</v>
-      </c>
-      <c r="B160" t="s">
-        <v>113</v>
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>164</v>
+      </c>
+      <c r="C160" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>133</v>
-      </c>
-      <c r="B161" t="s">
-        <v>114</v>
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>165</v>
+      </c>
+      <c r="C161" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>134</v>
-      </c>
-      <c r="B162" t="s">
-        <v>108</v>
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>165</v>
+      </c>
+      <c r="C162" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>134</v>
-      </c>
-      <c r="B163" t="s">
-        <v>109</v>
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>165</v>
+      </c>
+      <c r="C163" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>134</v>
-      </c>
-      <c r="B164" t="s">
-        <v>110</v>
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>166</v>
+      </c>
+      <c r="C164" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>134</v>
-      </c>
-      <c r="B165" t="s">
-        <v>111</v>
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>166</v>
+      </c>
+      <c r="C165" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>134</v>
-      </c>
-      <c r="B166" t="s">
-        <v>112</v>
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>166</v>
+      </c>
+      <c r="C166" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>134</v>
-      </c>
-      <c r="B167" t="s">
-        <v>113</v>
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>166</v>
+      </c>
+      <c r="C167" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>134</v>
-      </c>
-      <c r="B168" t="s">
-        <v>114</v>
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>167</v>
+      </c>
+      <c r="C168" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>135</v>
-      </c>
-      <c r="B169" t="s">
-        <v>108</v>
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>135</v>
-      </c>
-      <c r="B170" t="s">
-        <v>109</v>
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>167</v>
+      </c>
+      <c r="C170" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>135</v>
-      </c>
-      <c r="B171" t="s">
-        <v>110</v>
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>167</v>
+      </c>
+      <c r="C171" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>135</v>
-      </c>
-      <c r="B172" t="s">
-        <v>111</v>
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>168</v>
+      </c>
+      <c r="C172" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>135</v>
-      </c>
-      <c r="B173" t="s">
-        <v>112</v>
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>168</v>
+      </c>
+      <c r="C173" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>135</v>
-      </c>
-      <c r="B174" t="s">
-        <v>113</v>
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>168</v>
+      </c>
+      <c r="C174" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>135</v>
-      </c>
-      <c r="B175" t="s">
-        <v>114</v>
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>169</v>
+      </c>
+      <c r="C175" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>136</v>
-      </c>
-      <c r="B176" t="s">
-        <v>108</v>
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>169</v>
+      </c>
+      <c r="C176" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>136</v>
-      </c>
-      <c r="B177" t="s">
-        <v>109</v>
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>169</v>
+      </c>
+      <c r="C177" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>136</v>
-      </c>
-      <c r="B178" t="s">
-        <v>110</v>
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>169</v>
+      </c>
+      <c r="C178" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>136</v>
-      </c>
-      <c r="B179" t="s">
-        <v>111</v>
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>169</v>
+      </c>
+      <c r="C179" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>136</v>
-      </c>
-      <c r="B180" t="s">
-        <v>112</v>
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>170</v>
+      </c>
+      <c r="C180" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>136</v>
-      </c>
-      <c r="B181" t="s">
-        <v>113</v>
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>170</v>
+      </c>
+      <c r="C181" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>136</v>
-      </c>
-      <c r="B182" t="s">
-        <v>114</v>
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>170</v>
+      </c>
+      <c r="C182" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>138</v>
-      </c>
-      <c r="B183" t="s">
-        <v>115</v>
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>171</v>
+      </c>
+      <c r="C183" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>138</v>
-      </c>
-      <c r="B184" t="s">
-        <v>116</v>
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>171</v>
+      </c>
+      <c r="C184" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>138</v>
-      </c>
-      <c r="B185" t="s">
-        <v>117</v>
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>172</v>
+      </c>
+      <c r="C185" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>147</v>
-      </c>
-      <c r="B186" t="s">
-        <v>118</v>
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>172</v>
+      </c>
+      <c r="C186" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>147</v>
-      </c>
-      <c r="B187" t="s">
-        <v>119</v>
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>172</v>
+      </c>
+      <c r="C187" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>173</v>
-      </c>
-      <c r="B188" t="s">
-        <v>120</v>
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>172</v>
+      </c>
+      <c r="C188" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>173</v>
-      </c>
-      <c r="B189" t="s">
-        <v>121</v>
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>172</v>
+      </c>
+      <c r="C189" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
         <v>173</v>
       </c>
-      <c r="B190" t="s">
-        <v>122</v>
+      <c r="C190" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>175</v>
-      </c>
-      <c r="B191" t="s">
-        <v>123</v>
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>173</v>
+      </c>
+      <c r="C191" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>175</v>
-      </c>
-      <c r="B192" t="s">
-        <v>124</v>
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>174</v>
+      </c>
+      <c r="C192" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>175</v>
-      </c>
-      <c r="B193" t="s">
-        <v>125</v>
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>174</v>
+      </c>
+      <c r="C193" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
         <v>175</v>
       </c>
-      <c r="B194" t="s">
-        <v>126</v>
+      <c r="C194" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
         <v>175</v>
       </c>
-      <c r="B195" t="s">
-        <v>127</v>
+      <c r="C195" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>176</v>
-      </c>
-      <c r="B196" t="s">
-        <v>128</v>
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>175</v>
+      </c>
+      <c r="C196" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>176</v>
-      </c>
-      <c r="B197" t="s">
-        <v>129</v>
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>177</v>
+      </c>
+      <c r="C197" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>177</v>
-      </c>
-      <c r="B198" t="s">
-        <v>130</v>
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>182</v>
+      </c>
+      <c r="C198" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
